--- a/data/apd_fcv.xlsx
+++ b/data/apd_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8140625567347139</v>
+        <v>0.8269202200162644</v>
       </c>
       <c r="D2">
-        <v>0.805753244077567</v>
+        <v>0.016265879147472</v>
       </c>
       <c r="E2">
-        <v>0.7935293737179527</v>
+        <v>0.8057980858379701</v>
       </c>
       <c r="F2">
-        <v>0.7763876862912775</v>
+        <v>0.01477018580232867</v>
       </c>
       <c r="G2">
-        <v>0.7678856367860831</v>
+        <v>0.789381124196361</v>
+      </c>
+      <c r="H2">
+        <v>0.02072751941951771</v>
+      </c>
+      <c r="I2">
+        <v>0.7722691340215022</v>
+      </c>
+      <c r="J2">
+        <v>0.03297623102044418</v>
+      </c>
+      <c r="K2">
+        <v>0.7530720308656191</v>
+      </c>
+      <c r="L2">
+        <v>0.02301328700677731</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.821943768271006</v>
+        <v>0.832217331559589</v>
       </c>
       <c r="D3">
-        <v>0.810190745275491</v>
+        <v>0.01521574122255964</v>
       </c>
       <c r="E3">
-        <v>0.8043516181002422</v>
+        <v>0.8133104613414609</v>
       </c>
       <c r="F3">
-        <v>0.7859271207628639</v>
+        <v>0.01525340928887356</v>
       </c>
       <c r="G3">
-        <v>0.7775399487988749</v>
+        <v>0.801842049379341</v>
+      </c>
+      <c r="H3">
+        <v>0.01942914514144753</v>
+      </c>
+      <c r="I3">
+        <v>0.7878715678587421</v>
+      </c>
+      <c r="J3">
+        <v>0.03593378303954588</v>
+      </c>
+      <c r="K3">
+        <v>0.7711447119078412</v>
+      </c>
+      <c r="L3">
+        <v>0.02557462646890845</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7654214121345608</v>
+        <v>0.7661770929576098</v>
       </c>
       <c r="D4">
-        <v>0.7782514507232469</v>
+        <v>0.01016923241557916</v>
       </c>
       <c r="E4">
-        <v>0.766825497811546</v>
+        <v>0.7704784661953039</v>
       </c>
       <c r="F4">
-        <v>0.7890165309156656</v>
+        <v>0.01400620361017207</v>
       </c>
       <c r="G4">
-        <v>0.7770782041994012</v>
+        <v>0.7679255817092716</v>
+      </c>
+      <c r="H4">
+        <v>0.02562291102390764</v>
+      </c>
+      <c r="I4">
+        <v>0.7776337348231441</v>
+      </c>
+      <c r="J4">
+        <v>0.02379357330258653</v>
+      </c>
+      <c r="K4">
+        <v>0.7751859513499821</v>
+      </c>
+      <c r="L4">
+        <v>0.01907350294624797</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7474687073599212</v>
+        <v>0.7651556527242598</v>
       </c>
       <c r="D5">
-        <v>0.7622262875232504</v>
+        <v>0.02511881756105357</v>
       </c>
       <c r="E5">
-        <v>0.7437836307665584</v>
+        <v>0.7541573848414977</v>
       </c>
       <c r="F5">
-        <v>0.7504976876275973</v>
+        <v>0.02759614782270312</v>
       </c>
       <c r="G5">
-        <v>0.7338476322112109</v>
+        <v>0.7490592553412048</v>
+      </c>
+      <c r="H5">
+        <v>0.02584965936616514</v>
+      </c>
+      <c r="I5">
+        <v>0.7565132140232967</v>
+      </c>
+      <c r="J5">
+        <v>0.02379263189520464</v>
+      </c>
+      <c r="K5">
+        <v>0.7388214356402985</v>
+      </c>
+      <c r="L5">
+        <v>0.01880438318540079</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.776581277693128</v>
+        <v>0.7760602454867427</v>
       </c>
       <c r="D6">
-        <v>0.764782733598277</v>
+        <v>0.02453797399747067</v>
       </c>
       <c r="E6">
-        <v>0.7610296631687616</v>
+        <v>0.7698881594501135</v>
       </c>
       <c r="F6">
-        <v>0.7486315582474392</v>
+        <v>0.02458547155843596</v>
       </c>
       <c r="G6">
-        <v>0.7202757151384395</v>
+        <v>0.7514536085385257</v>
+      </c>
+      <c r="H6">
+        <v>0.01357839011082922</v>
+      </c>
+      <c r="I6">
+        <v>0.7502698101949177</v>
+      </c>
+      <c r="J6">
+        <v>0.01085075024341467</v>
+      </c>
+      <c r="K6">
+        <v>0.7534135534385253</v>
+      </c>
+      <c r="L6">
+        <v>0.03401072561664792</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.7294192409985166</v>
+        <v>0.8334858289152438</v>
       </c>
       <c r="D7">
-        <v>0.722993979526749</v>
+        <v>0.01803767283039963</v>
       </c>
       <c r="E7">
-        <v>0.7079608100220527</v>
+        <v>0.820721388207543</v>
       </c>
       <c r="F7">
-        <v>0.7028409173153798</v>
+        <v>0.01724801362350073</v>
       </c>
       <c r="G7">
-        <v>0.6607340225024558</v>
+        <v>0.8122686183217327</v>
+      </c>
+      <c r="H7">
+        <v>0.02342287613436309</v>
+      </c>
+      <c r="I7">
+        <v>0.7954826323819981</v>
+      </c>
+      <c r="J7">
+        <v>0.02826668479107708</v>
+      </c>
+      <c r="K7">
+        <v>0.7936592651557134</v>
+      </c>
+      <c r="L7">
+        <v>0.02099679302383254</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.659226754465143</v>
+        <v>0.8343199710647928</v>
       </c>
       <c r="D8">
-        <v>0.6708598533785004</v>
+        <v>0.01102846655358631</v>
       </c>
       <c r="E8">
-        <v>0.6898625617271941</v>
+        <v>0.8214478402825881</v>
       </c>
       <c r="F8">
-        <v>0.6850630362132516</v>
+        <v>0.01406192486750847</v>
       </c>
       <c r="G8">
-        <v>0.6472574525605038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8243622429666513</v>
-      </c>
-      <c r="D9">
-        <v>0.819413821357497</v>
-      </c>
-      <c r="E9">
-        <v>0.8054746954318899</v>
-      </c>
-      <c r="F9">
-        <v>0.8008613374940972</v>
-      </c>
-      <c r="G9">
-        <v>0.7891340821742158</v>
+        <v>0.8143759897763273</v>
+      </c>
+      <c r="H8">
+        <v>0.0220104682079383</v>
+      </c>
+      <c r="I8">
+        <v>0.8091005566881602</v>
+      </c>
+      <c r="J8">
+        <v>0.023838555299636</v>
+      </c>
+      <c r="K8">
+        <v>0.797632064368036</v>
+      </c>
+      <c r="L8">
+        <v>0.01156208009881626</v>
       </c>
     </row>
   </sheetData>
